--- a/source_docs/ptp_short_description.xlsx
+++ b/source_docs/ptp_short_description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22220"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="29320" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Hoe tevreden bent u over hoe de school omgaat met suggesties en idee&amp;#235;n van ouders</t>
   </si>
   <si>
-    <t>omgang suggesties en idee&amp;#235;n van ouders</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over hoe de school omgaat met klachten en problemen van ouders</t>
   </si>
   <si>
@@ -122,18 +119,6 @@
     <t>bespreekbaar maken problemen</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over introductie van nieuwe collega&amp;quot;s</t>
-  </si>
-  <si>
-    <t>introductie nieuwe collega&amp;quot;s</t>
-  </si>
-  <si>
-    <t>Hoe tevreden bent u over samenwerking met uw collega&amp;quot;s</t>
-  </si>
-  <si>
-    <t>samenwerking met collega&amp;quot;s</t>
-  </si>
-  <si>
     <t>Hoe belangrijk vindt u loopbaanmanagement voor een goede school?</t>
   </si>
   <si>
@@ -467,12 +452,6 @@
     <t>netheid binnen de school</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over hygi&amp;#235;ne binnen de school</t>
-  </si>
-  <si>
-    <t>hygi&amp;#235;ne binnen de school</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over sfeer en inrichting van het gebouw</t>
   </si>
   <si>
@@ -674,15 +653,9 @@
     <t>Hoe belangrijk vindt u het onderwijsbeleid voor een goede school?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de motivatie van uw collega&amp;#39;s?</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over uw eigen motivatie?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de begeleiding van nieuwe collega&amp;#39;s?</t>
-  </si>
-  <si>
     <t>Ik ben sterk betrokken bij mijn werk en mijn school</t>
   </si>
   <si>
@@ -794,9 +767,6 @@
     <t>Hoe tevreden bent u over uw betrokkenheid bij uw eigen school?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de betrokkenheid van uw collega&amp;#39;s bij de school in het algemeen?</t>
-  </si>
-  <si>
     <t>Ik voel mij verantwoordelijk voor mijn eigen ontwikkeling.</t>
   </si>
   <si>
@@ -815,51 +785,33 @@
     <t>Heeft u zich in de afgelopen 12 maanden onveilig gevoeld bij (individuele) gesprekken met ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van verbale agressie (zoals schelden, pesten, bedreigen, lastig vallen per telefoon/email) door collega&amp;#39;s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door leerlingen?</t>
   </si>
   <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door collega&amp;#39;s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van ongewenste seksuele intimiteiten (zoals seksueel getinte opmerkingen/gedragingen, handtastelijkheden, aanranding, verkrachting) door leerlingen?</t>
   </si>
   <si>
     <t xml:space="preserve">Bent u in de afgelopen 12 maanden op school slachtoffer geworden van ongewenste seksuele intimiteiten (zoals seksueel getinte opmerkingen/gedragingen, handtastelijkheden, aanranding, verkrachting) door ouders van leerlingen? </t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van ongewenste seksuele intimiteiten (zoals seksueel getinte opmerkingen/gedragingen, handtastelijkheden, aanranding, verkrachting) door collega&amp;#39;s / leidinggevenden?</t>
-  </si>
-  <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door leerlingen?</t>
   </si>
   <si>
     <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door collega&amp;#39;s/leidinggevenden?</t>
-  </si>
-  <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door leerlingen?</t>
   </si>
   <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door ouders van leerlingen?</t>
   </si>
   <si>
-    <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door collega&amp;#39;s/leidinggevenden?</t>
-  </si>
-  <si>
     <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door onbekenden?</t>
   </si>
   <si>
-    <t>Is er een collega of zijn er collega&amp;#39;s (ondergeschikten of meerderen) van u in de afgelopen 12 maanden op school slachtoffer geworden n van de hiervoor genoemde onwenselijke gedragingen?</t>
-  </si>
-  <si>
     <t>Is er voldoende gelegenheid voor het veilig opbergen van (waardevolle) persoonlijke eigendommen?</t>
   </si>
   <si>
@@ -1031,18 +983,6 @@
     <t>Hoe tevreden bent u over de snelheid waarmee ICT problemen worden verholpen?</t>
   </si>
   <si>
-    <t>Hoe tevreden bent u over de vakbekwaamheid van de ICT&amp;#39;er?</t>
-  </si>
-  <si>
-    <t>Hoe tevreden bent u over de mate waarin met de ICT&amp;#39;er gemaakte afspraken worden nagekomen?</t>
-  </si>
-  <si>
-    <t>Hoe tevreden bent u over de onderwijsinhoudelijke ondersteuning door de ICT&amp;#39;er?</t>
-  </si>
-  <si>
-    <t>Hoe belangrijk vindt u de ICT&amp;#39;er voor een goede ICT-omgeving op school?</t>
-  </si>
-  <si>
     <t>Hoe tevreden bent u over de stabiliteit van de software op de digitale schoolborden?</t>
   </si>
   <si>
@@ -1205,9 +1145,6 @@
     <t>Welk rapportcijfer geeft u t.a.v. de wijze waarop binnen het bestuur ge_iuml_nspireerd werken/leren van elkaar wordt gestimuleerd?</t>
   </si>
   <si>
-    <t>Welk rapportcijfer geeft u t.a.v. de bereidheid van collega&amp;#39;s binnen het bestuur om mee te werken aan het realiseren van de doelstellingen?</t>
-  </si>
-  <si>
     <t>Welk rapportcijfer geeft u t.a.v. het functioneren van het bestuur?</t>
   </si>
   <si>
@@ -1262,15 +1199,9 @@
     <t xml:space="preserve">Mate van keuze voor leerlingen </t>
   </si>
   <si>
-    <t>Motivatie van collega&amp;#39;s</t>
-  </si>
-  <si>
     <t>Eigen motivatie</t>
   </si>
   <si>
-    <t>Begeleiding nieuwe collega&amp;#39;s</t>
-  </si>
-  <si>
     <t>Betrokkenheid bij werk</t>
   </si>
   <si>
@@ -1376,9 +1307,6 @@
     <t>Betrokkenheid school</t>
   </si>
   <si>
-    <t>Betrokkenheid collega&amp;#39;s</t>
-  </si>
-  <si>
     <t>Verantwoordelijk voor eigen ontwikkeling</t>
   </si>
   <si>
@@ -1409,36 +1337,24 @@
     <t>Slachtoffer discriminatie door ouders</t>
   </si>
   <si>
-    <t>Slachtoffer discriminatie door collega&amp;#39;s / leidinggevenden</t>
-  </si>
-  <si>
     <t>Slachtoffer seksuele intimidatie door leerlingen</t>
   </si>
   <si>
     <t>Slachtoffer seksuele intimidatie door ouders</t>
   </si>
   <si>
-    <t>Slachtoffer seksuele intimidatie door collega&amp;#39;s / leidinggevenden</t>
-  </si>
-  <si>
     <t>Slachtoffer fysiek geweld door leerlingen</t>
   </si>
   <si>
     <t>Slachtoffer fysiek geweld  door ouders</t>
   </si>
   <si>
-    <t>Slachtoffer fysiek geweld  door collega&amp;#39;s / leidinggevenden</t>
-  </si>
-  <si>
     <t>Slachtoffer vernieling/diefstal door leerlingen</t>
   </si>
   <si>
     <t>Slachtoffer vernieling/diefstal door ouders</t>
   </si>
   <si>
-    <t>Slachtoffer vernieling/diefstal door collega&amp;#39;s / leidinggevenden</t>
-  </si>
-  <si>
     <t>Slachtoffer vernieling/diefstal door onbekenden</t>
   </si>
   <si>
@@ -1592,15 +1508,6 @@
     <t>Snelheid oplossen ICT problemen</t>
   </si>
   <si>
-    <t>Vakbekwaamheid ICT&amp;#39;er</t>
-  </si>
-  <si>
-    <t>Nakomen afspraken ICT&amp;#39;er</t>
-  </si>
-  <si>
-    <t>Onderwijsinhoudelijke ondersteuning ICT&amp;#39;er</t>
-  </si>
-  <si>
     <t>Stabiliteit software</t>
   </si>
   <si>
@@ -1733,9 +1640,6 @@
     <t>Raportcijfer stimuleren ge_iuml_nspireerd werken/leren van elkaar binnen bestuur</t>
   </si>
   <si>
-    <t>Rapportcijfer bereidheid van collega&amp;#39;s binnen het bestuur om mee te werken aan het realiseren van de doelstellingen</t>
-  </si>
-  <si>
     <t>Rapportcijfer functioneren bestuur</t>
   </si>
   <si>
@@ -1802,9 +1706,6 @@
     <t>belang hardware voor een goede ICT-omgeving op school</t>
   </si>
   <si>
-    <t>belang ICT&amp;#39;er voor een goede ICT-omgeving op school?</t>
-  </si>
-  <si>
     <t>belang software voor een goede ICT-omgeving op school</t>
   </si>
   <si>
@@ -1842,6 +1743,105 @@
   </si>
   <si>
     <t>belang nieuwe directeur beschikt over hoge communicatieve vaardigheden in woord en schrift naar de ouders/verzorgers</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over introductie van nieuwe collega</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over samenwerking met uw collega</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de motivatie van uw colleg</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de begeleiding van nieuwe collega</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de betrokkenheid van uw collega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bent u in de afgelopen 12 maanden op school slachtoffer geworden van verbale agressie (zoals schelden, pesten, bedreigen, lastig vallen per telefoon/email) door </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welk rapportcijfer geeft u t.a.v. de bereidheid van </t>
+  </si>
+  <si>
+    <t>introductie nieuwe collega&amp;amp;quot;s</t>
+  </si>
+  <si>
+    <t>samenwerking met collega&amp;amp;quot;s</t>
+  </si>
+  <si>
+    <t>omgang suggesties en idee&amp;amp;#235;n van ouders</t>
+  </si>
+  <si>
+    <t>hygi&amp;amp;#235;ne binnen de school</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over hygi</t>
+  </si>
+  <si>
+    <t>Motivatie van collega&amp;amp;#39;s</t>
+  </si>
+  <si>
+    <t>Begeleiding nieuwe collega&amp;amp;#39;s</t>
+  </si>
+  <si>
+    <t>Betrokkenheid collega&amp;amp;#39;s</t>
+  </si>
+  <si>
+    <t>Slachtoffer discriminatie door collega&amp;amp;#39;s / leidinggevenden</t>
+  </si>
+  <si>
+    <t>Slachtoffer seksuele intimidatie door collega&amp;amp;#39;s / leidinggevenden</t>
+  </si>
+  <si>
+    <t>Slachtoffer fysiek geweld  door collega&amp;amp;#39;s / leidinggevenden</t>
+  </si>
+  <si>
+    <t>Slachtoffer vernieling/diefstal door collega&amp;amp;#39;s / leidinggevenden</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de vakbekwaamheid van de ICT&amp;amp;#39;er?</t>
+  </si>
+  <si>
+    <t>Vakbekwaamheid ICT&amp;amp;#39;er</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de mate waarin met de ICT&amp;amp;#39;er gemaakte afspraken worden nagekomen?</t>
+  </si>
+  <si>
+    <t>Nakomen afspraken ICT&amp;amp;#39;er</t>
+  </si>
+  <si>
+    <t>Hoe tevreden bent u over de onderwijsinhoudelijke ondersteuning door de ICT&amp;amp;#39;er?</t>
+  </si>
+  <si>
+    <t>Onderwijsinhoudelijke ondersteuning ICT&amp;amp;#39;er</t>
+  </si>
+  <si>
+    <t>Hoe belangrijk vindt u de ICT&amp;amp;#39;er voor een goede ICT-omgeving op school?</t>
+  </si>
+  <si>
+    <t>belang ICT&amp;amp;#39;er voor een goede ICT-omgeving op school?</t>
+  </si>
+  <si>
+    <t>Rapportcijfer bereidheid van collega&amp;amp;#39;s binnen het bestuur om mee te werken aan het realiseren van de doelstellingen</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van discriminatie (op grond van geslacht, seksuele geaardheid, religie, huidskleur, afkomst) door coll</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van ongewenste seksuele intimiteiten (zoals seksueel getinte opmerkingen/gedragingen, handtastelijkheden, aanranding, verkrachting) door coll</t>
+  </si>
+  <si>
+    <t>Bent u in de afgelopen 12 maanden op school slachtoffer geworden van fysiek geweld (zoals duwen, slaan, schoppen, dreigen met wapens) door coll</t>
+  </si>
+  <si>
+    <t>Zijn er in de afgelopen 12 maanden op school eigendommen van u vernield, beschadigd of gestolen door coll</t>
+  </si>
+  <si>
+    <t>Is er een collega of zijn er collega% (ondergeschikten of meerderen) van u in de afgelopen 12 maanden op school slachtoffer geworden n van de hiervoor genoemde onwenselijke gedragingen?</t>
   </si>
 </sst>
 </file>
@@ -2248,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2261,13 +2261,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="C1" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2341,10 +2341,10 @@
         <v>278</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2352,10 +2352,10 @@
         <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2363,10 +2363,10 @@
         <v>276</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2374,10 +2374,10 @@
         <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>575</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>274</v>
       </c>
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2396,10 +2396,10 @@
         <v>273</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2407,10 +2407,10 @@
         <v>272</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>271</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2429,10 +2429,10 @@
         <v>270</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2440,10 +2440,10 @@
         <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>569</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2451,10 +2451,10 @@
         <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>570</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2462,10 +2462,10 @@
         <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2473,10 +2473,10 @@
         <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2484,10 +2484,10 @@
         <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2495,10 +2495,10 @@
         <v>264</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2506,10 +2506,10 @@
         <v>263</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>261</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>260</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>259</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2572,10 +2572,10 @@
         <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>256</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2594,10 +2594,10 @@
         <v>255</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2605,10 +2605,10 @@
         <v>254</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2616,10 +2616,10 @@
         <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2627,10 +2627,10 @@
         <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2638,10 +2638,10 @@
         <v>251</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2649,10 +2649,10 @@
         <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2660,10 +2660,10 @@
         <v>249</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2671,10 +2671,10 @@
         <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2682,10 +2682,10 @@
         <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2693,10 +2693,10 @@
         <v>246</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2704,10 +2704,10 @@
         <v>245</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2715,10 +2715,10 @@
         <v>244</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2726,10 +2726,10 @@
         <v>243</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2737,10 +2737,10 @@
         <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2748,10 +2748,10 @@
         <v>241</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2759,10 +2759,10 @@
         <v>240</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2770,10 +2770,10 @@
         <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2781,10 +2781,10 @@
         <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2792,10 +2792,10 @@
         <v>237</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2803,10 +2803,10 @@
         <v>236</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2814,10 +2814,10 @@
         <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2825,10 +2825,10 @@
         <v>234</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2836,10 +2836,10 @@
         <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2847,10 +2847,10 @@
         <v>232</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2858,10 +2858,10 @@
         <v>231</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2869,10 +2869,10 @@
         <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2880,10 +2880,10 @@
         <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2891,10 +2891,10 @@
         <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2902,10 +2902,10 @@
         <v>227</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2913,10 +2913,10 @@
         <v>226</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2924,10 +2924,10 @@
         <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2935,10 +2935,10 @@
         <v>224</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2946,10 +2946,10 @@
         <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2957,10 +2957,10 @@
         <v>222</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2968,10 +2968,10 @@
         <v>221</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2979,10 +2979,10 @@
         <v>220</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2990,10 +2990,10 @@
         <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3001,10 +3001,10 @@
         <v>218</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3012,10 +3012,10 @@
         <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3023,10 +3023,10 @@
         <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3034,10 +3034,10 @@
         <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3045,10 +3045,10 @@
         <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3056,10 +3056,10 @@
         <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3067,10 +3067,10 @@
         <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3078,10 +3078,10 @@
         <v>211</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3089,10 +3089,10 @@
         <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3100,10 +3100,10 @@
         <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3111,10 +3111,10 @@
         <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>580</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3122,10 +3122,10 @@
         <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3133,10 +3133,10 @@
         <v>206</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3144,10 +3144,10 @@
         <v>205</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3155,10 +3155,10 @@
         <v>204</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3166,10 +3166,10 @@
         <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3177,10 +3177,10 @@
         <v>202</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3188,10 +3188,10 @@
         <v>201</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3199,10 +3199,10 @@
         <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3210,10 +3210,10 @@
         <v>285</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3221,10 +3221,10 @@
         <v>286</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3232,10 +3232,10 @@
         <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3243,10 +3243,10 @@
         <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3254,10 +3254,10 @@
         <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3265,10 +3265,10 @@
         <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3276,10 +3276,10 @@
         <v>291</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3287,10 +3287,10 @@
         <v>292</v>
       </c>
       <c r="B94" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3298,10 +3298,10 @@
         <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>579</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3309,10 +3309,10 @@
         <v>294</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3320,10 +3320,10 @@
         <v>295</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3331,10 +3331,10 @@
         <v>296</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3342,10 +3342,10 @@
         <v>297</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3353,10 +3353,10 @@
         <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3364,10 +3364,10 @@
         <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3375,10 +3375,10 @@
         <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3386,10 +3386,10 @@
         <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3397,10 +3397,10 @@
         <v>302</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3408,10 +3408,10 @@
         <v>303</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3419,10 +3419,10 @@
         <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3430,10 +3430,10 @@
         <v>305</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3441,10 +3441,10 @@
         <v>306</v>
       </c>
       <c r="B108" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3452,10 +3452,10 @@
         <v>307</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3463,10 +3463,10 @@
         <v>10000</v>
       </c>
       <c r="B110" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3474,10 +3474,10 @@
         <v>10001</v>
       </c>
       <c r="B111" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3485,10 +3485,10 @@
         <v>10002</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3496,10 +3496,10 @@
         <v>10003</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3507,10 +3507,10 @@
         <v>10004</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3518,10 +3518,10 @@
         <v>10005</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3529,10 +3529,10 @@
         <v>10006</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3540,10 +3540,10 @@
         <v>10007</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>571</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>408</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3551,10 +3551,10 @@
         <v>10008</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3562,10 +3562,10 @@
         <v>10009</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>410</v>
+        <v>582</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3573,10 +3573,10 @@
         <v>10010</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3584,10 +3584,10 @@
         <v>10011</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3595,10 +3595,10 @@
         <v>10012</v>
       </c>
       <c r="B122" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3606,10 +3606,10 @@
         <v>10013</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3617,10 +3617,10 @@
         <v>10014</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3628,10 +3628,10 @@
         <v>10015</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3639,10 +3639,10 @@
         <v>10016</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3650,10 +3650,10 @@
         <v>10017</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3661,10 +3661,10 @@
         <v>10018</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3672,10 +3672,10 @@
         <v>10019</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3683,10 +3683,10 @@
         <v>10020</v>
       </c>
       <c r="B130" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3694,10 +3694,10 @@
         <v>10021</v>
       </c>
       <c r="B131" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3705,10 +3705,10 @@
         <v>10022</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3716,10 +3716,10 @@
         <v>10023</v>
       </c>
       <c r="B133" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3727,10 +3727,10 @@
         <v>10024</v>
       </c>
       <c r="B134" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3738,10 +3738,10 @@
         <v>10025</v>
       </c>
       <c r="B135" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3749,10 +3749,10 @@
         <v>10026</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3760,10 +3760,10 @@
         <v>10027</v>
       </c>
       <c r="B137" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3771,10 +3771,10 @@
         <v>10028</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3782,10 +3782,10 @@
         <v>10029</v>
       </c>
       <c r="B139" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3793,10 +3793,10 @@
         <v>10030</v>
       </c>
       <c r="B140" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3804,10 +3804,10 @@
         <v>10031</v>
       </c>
       <c r="B141" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3815,10 +3815,10 @@
         <v>10032</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3826,10 +3826,10 @@
         <v>10033</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3837,10 +3837,10 @@
         <v>10034</v>
       </c>
       <c r="B144" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3848,10 +3848,10 @@
         <v>10035</v>
       </c>
       <c r="B145" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3859,10 +3859,10 @@
         <v>10036</v>
       </c>
       <c r="B146" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3870,10 +3870,10 @@
         <v>10037</v>
       </c>
       <c r="B147" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3881,10 +3881,10 @@
         <v>10038</v>
       </c>
       <c r="B148" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3892,10 +3892,10 @@
         <v>10039</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3903,10 +3903,10 @@
         <v>10040</v>
       </c>
       <c r="B150" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3914,10 +3914,10 @@
         <v>10041</v>
       </c>
       <c r="B151" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3925,10 +3925,10 @@
         <v>10042</v>
       </c>
       <c r="B152" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3936,10 +3936,10 @@
         <v>10043</v>
       </c>
       <c r="B153" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3947,10 +3947,10 @@
         <v>10044</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3958,10 +3958,10 @@
         <v>10045</v>
       </c>
       <c r="B155" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C155" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3969,10 +3969,10 @@
         <v>10046</v>
       </c>
       <c r="B156" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3980,10 +3980,10 @@
         <v>10047</v>
       </c>
       <c r="B157" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3991,10 +3991,10 @@
         <v>10048</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4002,10 +4002,10 @@
         <v>10049</v>
       </c>
       <c r="B159" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C159" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4013,10 +4013,10 @@
         <v>10050</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -4024,10 +4024,10 @@
         <v>10051</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4035,10 +4035,10 @@
         <v>10052</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>573</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>446</v>
+        <v>583</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -4046,10 +4046,10 @@
         <v>10054</v>
       </c>
       <c r="B163" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4057,10 +4057,10 @@
         <v>10057</v>
       </c>
       <c r="B164" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -4068,10 +4068,10 @@
         <v>10059</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -4079,10 +4079,10 @@
         <v>10060</v>
       </c>
       <c r="B166" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4090,10 +4090,10 @@
         <v>10061</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4101,10 +4101,10 @@
         <v>10062</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4112,10 +4112,10 @@
         <v>10063</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4123,10 +4123,10 @@
         <v>10064</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4134,10 +4134,10 @@
         <v>10071</v>
       </c>
       <c r="B171" t="s">
-        <v>259</v>
+        <v>574</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4145,10 +4145,10 @@
         <v>10072</v>
       </c>
       <c r="B172" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4156,10 +4156,10 @@
         <v>10073</v>
       </c>
       <c r="B173" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4167,10 +4167,10 @@
         <v>10074</v>
       </c>
       <c r="B174" t="s">
-        <v>262</v>
+        <v>597</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4178,10 +4178,10 @@
         <v>10075</v>
       </c>
       <c r="B175" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4189,10 +4189,10 @@
         <v>10076</v>
       </c>
       <c r="B176" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4200,10 +4200,10 @@
         <v>10077</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>598</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>460</v>
+        <v>585</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4211,10 +4211,10 @@
         <v>10078</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4222,10 +4222,10 @@
         <v>10079</v>
       </c>
       <c r="B179" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4233,10 +4233,10 @@
         <v>10080</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>599</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>463</v>
+        <v>586</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4244,10 +4244,10 @@
         <v>10081</v>
       </c>
       <c r="B181" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4255,10 +4255,10 @@
         <v>10082</v>
       </c>
       <c r="B182" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4266,10 +4266,10 @@
         <v>10083</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>600</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>466</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4277,10 +4277,10 @@
         <v>10084</v>
       </c>
       <c r="B184" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4288,10 +4288,10 @@
         <v>10085</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>601</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4299,10 +4299,10 @@
         <v>10086</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4310,10 +4310,10 @@
         <v>10087</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4321,10 +4321,10 @@
         <v>10088</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4332,10 +4332,10 @@
         <v>10089</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4343,10 +4343,10 @@
         <v>10090</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4354,10 +4354,10 @@
         <v>10091</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4365,10 +4365,10 @@
         <v>10092</v>
       </c>
       <c r="B192" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4376,10 +4376,10 @@
         <v>10093</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4387,10 +4387,10 @@
         <v>10094</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4398,10 +4398,10 @@
         <v>10095</v>
       </c>
       <c r="B195" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4409,10 +4409,10 @@
         <v>10096</v>
       </c>
       <c r="B196" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4420,10 +4420,10 @@
         <v>10097</v>
       </c>
       <c r="B197" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4431,10 +4431,10 @@
         <v>10098</v>
       </c>
       <c r="B198" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4442,10 +4442,10 @@
         <v>10099</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4453,10 +4453,10 @@
         <v>10100</v>
       </c>
       <c r="B200" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4464,10 +4464,10 @@
         <v>10101</v>
       </c>
       <c r="B201" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>581</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4475,10 +4475,10 @@
         <v>10102</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4486,10 +4486,10 @@
         <v>10103</v>
       </c>
       <c r="B203" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4497,10 +4497,10 @@
         <v>10104</v>
       </c>
       <c r="B204" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4508,10 +4508,10 @@
         <v>10105</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4519,10 +4519,10 @@
         <v>10106</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4530,10 +4530,10 @@
         <v>10107</v>
       </c>
       <c r="B207" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4541,10 +4541,10 @@
         <v>10108</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4552,10 +4552,10 @@
         <v>10109</v>
       </c>
       <c r="B209" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4563,10 +4563,10 @@
         <v>10110</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4574,10 +4574,10 @@
         <v>10111</v>
       </c>
       <c r="B211" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4585,10 +4585,10 @@
         <v>10112</v>
       </c>
       <c r="B212" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4596,10 +4596,10 @@
         <v>10113</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4607,10 +4607,10 @@
         <v>10114</v>
       </c>
       <c r="B214" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4618,10 +4618,10 @@
         <v>10115</v>
       </c>
       <c r="B215" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>582</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4629,10 +4629,10 @@
         <v>10116</v>
       </c>
       <c r="B216" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4640,10 +4640,10 @@
         <v>10117</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4651,10 +4651,10 @@
         <v>10118</v>
       </c>
       <c r="B218" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4662,10 +4662,10 @@
         <v>10119</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>583</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4673,10 +4673,10 @@
         <v>10120</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4684,10 +4684,10 @@
         <v>10121</v>
       </c>
       <c r="B221" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4695,10 +4695,10 @@
         <v>10122</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4706,10 +4706,10 @@
         <v>10123</v>
       </c>
       <c r="B223" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4717,10 +4717,10 @@
         <v>10124</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4728,10 +4728,10 @@
         <v>10125</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4739,10 +4739,10 @@
         <v>10126</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4750,10 +4750,10 @@
         <v>10127</v>
       </c>
       <c r="B227" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4761,10 +4761,10 @@
         <v>10128</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4772,10 +4772,10 @@
         <v>10129</v>
       </c>
       <c r="B229" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4783,10 +4783,10 @@
         <v>10130</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4794,10 +4794,10 @@
         <v>10131</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4805,10 +4805,10 @@
         <v>10132</v>
       </c>
       <c r="B232" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4816,10 +4816,10 @@
         <v>10133</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4827,10 +4827,10 @@
         <v>10134</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4838,10 +4838,10 @@
         <v>10135</v>
       </c>
       <c r="B235" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4849,10 +4849,10 @@
         <v>10136</v>
       </c>
       <c r="B236" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4860,10 +4860,10 @@
         <v>10137</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4871,10 +4871,10 @@
         <v>10138</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4882,10 +4882,10 @@
         <v>10139</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4893,10 +4893,10 @@
         <v>10140</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4904,10 +4904,10 @@
         <v>10141</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4915,10 +4915,10 @@
         <v>10142</v>
       </c>
       <c r="B242" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4926,10 +4926,10 @@
         <v>10143</v>
       </c>
       <c r="B243" t="s">
-        <v>331</v>
+        <v>588</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4937,10 +4937,10 @@
         <v>10144</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>590</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4948,10 +4948,10 @@
         <v>10145</v>
       </c>
       <c r="B245" t="s">
-        <v>333</v>
+        <v>592</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4959,10 +4959,10 @@
         <v>10146</v>
       </c>
       <c r="B246" t="s">
-        <v>334</v>
+        <v>594</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4970,10 +4970,10 @@
         <v>10147</v>
       </c>
       <c r="B247" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4981,10 +4981,10 @@
         <v>10148</v>
       </c>
       <c r="B248" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4992,10 +4992,10 @@
         <v>10149</v>
       </c>
       <c r="B249" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -5003,10 +5003,10 @@
         <v>10150</v>
       </c>
       <c r="B250" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5014,10 +5014,10 @@
         <v>10151</v>
       </c>
       <c r="B251" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5025,10 +5025,10 @@
         <v>10152</v>
       </c>
       <c r="B252" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5036,10 +5036,10 @@
         <v>10153</v>
       </c>
       <c r="B253" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5047,10 +5047,10 @@
         <v>10154</v>
       </c>
       <c r="B254" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5058,10 +5058,10 @@
         <v>10155</v>
       </c>
       <c r="B255" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5069,10 +5069,10 @@
         <v>10156</v>
       </c>
       <c r="B256" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5080,10 +5080,10 @@
         <v>10157</v>
       </c>
       <c r="B257" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5091,10 +5091,10 @@
         <v>10158</v>
       </c>
       <c r="B258" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5102,10 +5102,10 @@
         <v>10159</v>
       </c>
       <c r="B259" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5113,10 +5113,10 @@
         <v>10160</v>
       </c>
       <c r="B260" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5124,10 +5124,10 @@
         <v>10161</v>
       </c>
       <c r="B261" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5135,10 +5135,10 @@
         <v>10162</v>
       </c>
       <c r="B262" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5146,10 +5146,10 @@
         <v>10163</v>
       </c>
       <c r="B263" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5157,10 +5157,10 @@
         <v>10164</v>
       </c>
       <c r="B264" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5168,10 +5168,10 @@
         <v>10165</v>
       </c>
       <c r="B265" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5179,10 +5179,10 @@
         <v>10166</v>
       </c>
       <c r="B266" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5190,10 +5190,10 @@
         <v>10167</v>
       </c>
       <c r="B267" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5201,10 +5201,10 @@
         <v>10168</v>
       </c>
       <c r="B268" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5212,10 +5212,10 @@
         <v>10169</v>
       </c>
       <c r="B269" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5223,10 +5223,10 @@
         <v>10170</v>
       </c>
       <c r="B270" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5234,10 +5234,10 @@
         <v>10171</v>
       </c>
       <c r="B271" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5245,10 +5245,10 @@
         <v>10172</v>
       </c>
       <c r="B272" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5256,10 +5256,10 @@
         <v>10173</v>
       </c>
       <c r="B273" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5267,10 +5267,10 @@
         <v>10174</v>
       </c>
       <c r="B274" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5278,10 +5278,10 @@
         <v>10175</v>
       </c>
       <c r="B275" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5289,10 +5289,10 @@
         <v>10176</v>
       </c>
       <c r="B276" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5300,10 +5300,10 @@
         <v>10177</v>
       </c>
       <c r="B277" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5311,10 +5311,10 @@
         <v>10178</v>
       </c>
       <c r="B278" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5322,10 +5322,10 @@
         <v>10179</v>
       </c>
       <c r="B279" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5333,10 +5333,10 @@
         <v>10180</v>
       </c>
       <c r="B280" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5344,10 +5344,10 @@
         <v>10181</v>
       </c>
       <c r="B281" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5355,10 +5355,10 @@
         <v>10182</v>
       </c>
       <c r="B282" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5366,10 +5366,10 @@
         <v>10183</v>
       </c>
       <c r="B283" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5377,10 +5377,10 @@
         <v>10184</v>
       </c>
       <c r="B284" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5388,10 +5388,10 @@
         <v>10185</v>
       </c>
       <c r="B285" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5399,10 +5399,10 @@
         <v>10186</v>
       </c>
       <c r="B286" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5410,10 +5410,10 @@
         <v>10187</v>
       </c>
       <c r="B287" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5421,10 +5421,10 @@
         <v>10188</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5432,10 +5432,10 @@
         <v>10189</v>
       </c>
       <c r="B289" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5443,10 +5443,10 @@
         <v>10190</v>
       </c>
       <c r="B290" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5454,10 +5454,10 @@
         <v>10191</v>
       </c>
       <c r="B291" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5465,10 +5465,10 @@
         <v>10192</v>
       </c>
       <c r="B292" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5476,10 +5476,10 @@
         <v>10193</v>
       </c>
       <c r="B293" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5487,10 +5487,10 @@
         <v>10194</v>
       </c>
       <c r="B294" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5498,10 +5498,10 @@
         <v>10195</v>
       </c>
       <c r="B295" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5509,10 +5509,10 @@
         <v>10196</v>
       </c>
       <c r="B296" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5520,10 +5520,10 @@
         <v>10197</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5531,10 +5531,10 @@
         <v>10198</v>
       </c>
       <c r="B298" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5542,10 +5542,10 @@
         <v>10199</v>
       </c>
       <c r="B299" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5553,10 +5553,10 @@
         <v>10200</v>
       </c>
       <c r="B300" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5564,10 +5564,10 @@
         <v>10201</v>
       </c>
       <c r="B301" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5575,10 +5575,10 @@
         <v>10202</v>
       </c>
       <c r="B302" t="s">
-        <v>389</v>
+        <v>575</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>565</v>
+        <v>596</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5586,10 +5586,10 @@
         <v>10203</v>
       </c>
       <c r="B303" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5597,10 +5597,10 @@
         <v>10204</v>
       </c>
       <c r="B304" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5608,10 +5608,10 @@
         <v>10205</v>
       </c>
       <c r="B305" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5619,10 +5619,10 @@
         <v>10206</v>
       </c>
       <c r="B306" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5630,10 +5630,10 @@
         <v>10207</v>
       </c>
       <c r="B307" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5641,10 +5641,10 @@
         <v>10208</v>
       </c>
       <c r="B308" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5652,10 +5652,10 @@
         <v>10209</v>
       </c>
       <c r="B309" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5663,10 +5663,10 @@
         <v>10210</v>
       </c>
       <c r="B310" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5674,10 +5674,10 @@
         <v>10211</v>
       </c>
       <c r="B311" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
